--- a/TestingFramework/TestData/TC_06_Create_Switch_View.xlsx
+++ b/TestingFramework/TestData/TC_06_Create_Switch_View.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7230" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Yes</t>
   </si>
@@ -1155,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1315,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>68</v>
@@ -1327,39 +1327,73 @@
         <v>69</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1371,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
